--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_4_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_4_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.2300000000005</v>
+        <v>24.71000000000042</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.285352271635492e-16</v>
+        <v>1.460819769243627e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.97459575574979</v>
+        <v>41.45922963110626</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.34172722487067, 47.60746428662891]</t>
+          <t>[35.87066008132341, 47.047799180889115]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.842816111114733</v>
+        <v>1.402552876377426</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.7044476659115793, 1.9811845563178876]</t>
+          <t>[1.2641844311742707, 1.5409213215805808]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.32205771439903</v>
+        <v>54.44639596439006</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.01863748273105, 55.62547794606701]</t>
+          <t>[51.024818597407645, 57.86797333137248]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.83021021021057</v>
+        <v>19.19415415415448</v>
       </c>
       <c r="X2" t="n">
-        <v>17.27459459459494</v>
+        <v>18.64998998999031</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.38582582582619</v>
+        <v>19.73831831831866</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.49000000000023</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.285352271635492e-16</v>
+        <v>1.460819769243627e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.10256101560151</v>
+        <v>48.17500749313863</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.26573608225464, 56.93938594894838]</t>
+          <t>[38.047656563342976, 58.30235842293428]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3899474364816156</v>
+        <v>-2.352263568453619</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.5660527303765388, -0.21384214258669232]</t>
+          <t>[-2.5535267614763892, -2.151000375430849]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.322704419532862e-05</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.322704419532862e-05</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.74924450353343</v>
+        <v>55.31805044670637</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.80451304893838, 60.69397595812847]</t>
+          <t>[50.18450236253092, 60.45159853088181]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.45783783783785</v>
+        <v>8.434654654654686</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7994594594594657</v>
+        <v>7.712972972973</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.116216216216235</v>
+        <v>9.156336336336373</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_4_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_4_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.71000000000042</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.460819769243627e-16</v>
+        <v>1.614869854000228e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>41.45922963110626</v>
+        <v>44.2963362142023</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.87066008132341, 47.047799180889115]</t>
+          <t>[39.01781521673638, 49.57485721166822]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.402552876377426</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2641844311742707, 1.5409213215805808]</t>
+          <t>[1.490605523324886, 1.7421845146033483]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.44639596439006</v>
+        <v>52.57554103396905</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.024818597407645, 57.86797333137248]</t>
+          <t>[49.08658506797829, 56.064496999959815]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.19415415415448</v>
+        <v>18.50914914914949</v>
       </c>
       <c r="X2" t="n">
-        <v>18.64998998999031</v>
+        <v>18.01025025025058</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.73831831831866</v>
+        <v>19.0080480480484</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.53000000000008</v>
+        <v>22.68000000000011</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.460819769243627e-16</v>
+        <v>1.614869854000228e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>48.17500749313863</v>
+        <v>41.49512272539614</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.047656563342976, 58.30235842293428]</t>
+          <t>[31.405843481447413, 51.58440196934486]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.978417429882029e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.978417429882029e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.352263568453619</v>
+        <v>-2.276789871070081</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.5535267614763892, -2.151000375430849]</t>
+          <t>[-2.5157899127846197, -2.037789829355542]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.31805044670637</v>
+        <v>51.01719440086133</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.18450236253092, 60.45159853088181]</t>
+          <t>[45.851608294135865, 56.18278050758679]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>8.434654654654686</v>
+        <v>8.21837837837842</v>
       </c>
       <c r="X3" t="n">
-        <v>7.712972972973</v>
+        <v>7.355675675675712</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.156336336336373</v>
+        <v>9.081081081081127</v>
       </c>
     </row>
   </sheetData>
